--- a/data_year/zb/科技/研究与试验发展项目(课题)情况.xlsx
+++ b/data_year/zb/科技/研究与试验发展项目(课题)情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT2"/>
+  <dimension ref="B1:AT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,148 +660,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.42425</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1164</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.63968</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.93973</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7113</v>
-      </c>
-      <c r="G2" t="n">
-        <v>140.851427</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.0606</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2187</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.504704</v>
-      </c>
-      <c r="K2" t="n">
-        <v>115.312</v>
-      </c>
-      <c r="L2" t="n">
-        <v>184631</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3035.50643</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.33644</v>
-      </c>
-      <c r="O2" t="n">
-        <v>40869</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30.43767</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.03756</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6581</v>
-      </c>
-      <c r="S2" t="n">
-        <v>103.309953</v>
-      </c>
-      <c r="T2" t="n">
-        <v>24.08995</v>
-      </c>
-      <c r="U2" t="n">
-        <v>451034</v>
-      </c>
-      <c r="V2" t="n">
-        <v>352.688199</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.08797000000000001</v>
-      </c>
-      <c r="X2" t="n">
-        <v>326</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.687828</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.19528</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>496</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.696732</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.2489</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2578</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22.68032</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>200.01743</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>775316</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>4549.273795</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>28.16085</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>69345</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>676.710822</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.7516</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1648</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>39.31711</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.3458</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>7191</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>127.67885</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.0265</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>153</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.56407</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
